--- a/data/climate_data_availability/6185_data.xlsx
+++ b/data/climate_data_availability/6185_data.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20304"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_262064899501318499D81DE54F396D708ED20A61" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="179016" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,9 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="23">
   <si>
     <t>inventory nr</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>month</t>
@@ -32,16 +36,13 @@
     <t>year</t>
   </si>
   <si>
-    <t>precip</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>temp_min</t>
   </si>
   <si>
     <t>temp_max</t>
+  </si>
+  <si>
+    <t>precip</t>
   </si>
   <si>
     <t>psychrometry_temp_dry</t>
@@ -62,22 +63,28 @@
     <t>haut bar. Luc</t>
   </si>
   <si>
-    <t>07.00</t>
+    <t>t1</t>
   </si>
   <si>
-    <t>14.00</t>
+    <t>t2</t>
   </si>
   <si>
-    <t>hygrometricite_max</t>
+    <t>t3</t>
   </si>
   <si>
-    <t>hygrometricite_min</t>
+    <t>actino</t>
   </si>
   <si>
-    <t>Longitude</t>
+    <t>hygro</t>
   </si>
   <si>
-    <t>latitude</t>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Alt</t>
   </si>
   <si>
     <t>altitude</t>
@@ -89,8 +96,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,63 +248,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="88">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
@@ -305,29 +316,25 @@
     <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,7 +393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,9 +426,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,6 +478,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -629,37 +670,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F133" sqref="F133"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="125" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="G144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S3" sqref="S3:X163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -691,22 +732,28 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>6185</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -757,21 +804,21 @@
         <v>0</v>
       </c>
       <c r="S2">
+        <v>5.5</v>
+      </c>
+      <c r="T2">
         <v>14.37</v>
-      </c>
-      <c r="T2">
-        <v>5.5</v>
       </c>
       <c r="U2">
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>6185</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -821,22 +868,13 @@
       <c r="R3">
         <v>0</v>
       </c>
-      <c r="S3">
-        <v>14.37</v>
-      </c>
-      <c r="T3">
-        <v>5.5</v>
-      </c>
-      <c r="U3">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>6185</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -886,22 +924,13 @@
       <c r="R4">
         <v>0</v>
       </c>
-      <c r="S4">
-        <v>14.37</v>
-      </c>
-      <c r="T4">
-        <v>5.5</v>
-      </c>
-      <c r="U4">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>6185</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -951,22 +980,13 @@
       <c r="R5">
         <v>0</v>
       </c>
-      <c r="S5">
-        <v>14.37</v>
-      </c>
-      <c r="T5">
-        <v>5.5</v>
-      </c>
-      <c r="U5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>6185</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -1016,22 +1036,13 @@
       <c r="R6">
         <v>0</v>
       </c>
-      <c r="S6">
-        <v>14.37</v>
-      </c>
-      <c r="T6">
-        <v>5.5</v>
-      </c>
-      <c r="U6">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>6185</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -1081,22 +1092,13 @@
       <c r="R7">
         <v>0</v>
       </c>
-      <c r="S7">
-        <v>14.37</v>
-      </c>
-      <c r="T7">
-        <v>5.5</v>
-      </c>
-      <c r="U7">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>6185</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -1146,22 +1148,13 @@
       <c r="R8">
         <v>0</v>
       </c>
-      <c r="S8">
-        <v>14.37</v>
-      </c>
-      <c r="T8">
-        <v>5.5</v>
-      </c>
-      <c r="U8">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>6185</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -1211,22 +1204,13 @@
       <c r="R9">
         <v>0</v>
       </c>
-      <c r="S9">
-        <v>14.37</v>
-      </c>
-      <c r="T9">
-        <v>5.5</v>
-      </c>
-      <c r="U9">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>6185</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -1276,22 +1260,13 @@
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10">
-        <v>14.37</v>
-      </c>
-      <c r="T10">
-        <v>5.5</v>
-      </c>
-      <c r="U10">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>6185</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -1341,22 +1316,13 @@
       <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11">
-        <v>14.37</v>
-      </c>
-      <c r="T11">
-        <v>5.5</v>
-      </c>
-      <c r="U11">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>6185</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -1406,22 +1372,13 @@
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="S12">
-        <v>14.37</v>
-      </c>
-      <c r="T12">
-        <v>5.5</v>
-      </c>
-      <c r="U12">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>6185</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1471,22 +1428,13 @@
       <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13">
-        <v>14.37</v>
-      </c>
-      <c r="T13">
-        <v>5.5</v>
-      </c>
-      <c r="U13">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>6185</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1536,22 +1484,13 @@
       <c r="R14">
         <v>0</v>
       </c>
-      <c r="S14">
-        <v>14.37</v>
-      </c>
-      <c r="T14">
-        <v>5.5</v>
-      </c>
-      <c r="U14">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>6185</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1601,22 +1540,13 @@
       <c r="R15">
         <v>0</v>
       </c>
-      <c r="S15">
-        <v>14.37</v>
-      </c>
-      <c r="T15">
-        <v>5.5</v>
-      </c>
-      <c r="U15">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>6185</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1666,22 +1596,13 @@
       <c r="R16">
         <v>0</v>
       </c>
-      <c r="S16">
-        <v>14.37</v>
-      </c>
-      <c r="T16">
-        <v>5.5</v>
-      </c>
-      <c r="U16">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>6185</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -1731,22 +1652,13 @@
       <c r="R17">
         <v>0</v>
       </c>
-      <c r="S17">
-        <v>14.37</v>
-      </c>
-      <c r="T17">
-        <v>5.5</v>
-      </c>
-      <c r="U17">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>6185</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -1796,22 +1708,13 @@
       <c r="R18">
         <v>0</v>
       </c>
-      <c r="S18">
-        <v>14.37</v>
-      </c>
-      <c r="T18">
-        <v>5.5</v>
-      </c>
-      <c r="U18">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>6185</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -1861,22 +1764,13 @@
       <c r="R19">
         <v>0</v>
       </c>
-      <c r="S19">
-        <v>14.37</v>
-      </c>
-      <c r="T19">
-        <v>5.5</v>
-      </c>
-      <c r="U19">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>6185</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -1926,22 +1820,13 @@
       <c r="R20">
         <v>0</v>
       </c>
-      <c r="S20">
-        <v>14.37</v>
-      </c>
-      <c r="T20">
-        <v>5.5</v>
-      </c>
-      <c r="U20">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>6185</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -1991,22 +1876,13 @@
       <c r="R21">
         <v>0</v>
       </c>
-      <c r="S21">
-        <v>14.37</v>
-      </c>
-      <c r="T21">
-        <v>5.5</v>
-      </c>
-      <c r="U21">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>6185</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -2056,22 +1932,13 @@
       <c r="R22">
         <v>0</v>
       </c>
-      <c r="S22">
-        <v>14.37</v>
-      </c>
-      <c r="T22">
-        <v>5.5</v>
-      </c>
-      <c r="U22">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>6185</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>11</v>
@@ -2121,22 +1988,13 @@
       <c r="R23">
         <v>0</v>
       </c>
-      <c r="S23">
-        <v>14.37</v>
-      </c>
-      <c r="T23">
-        <v>5.5</v>
-      </c>
-      <c r="U23">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>6185</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -2186,22 +2044,13 @@
       <c r="R24">
         <v>0</v>
       </c>
-      <c r="S24">
-        <v>14.37</v>
-      </c>
-      <c r="T24">
-        <v>5.5</v>
-      </c>
-      <c r="U24">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>6185</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2251,22 +2100,13 @@
       <c r="R25">
         <v>0</v>
       </c>
-      <c r="S25">
-        <v>14.37</v>
-      </c>
-      <c r="T25">
-        <v>5.5</v>
-      </c>
-      <c r="U25">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>6185</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2316,22 +2156,13 @@
       <c r="R26">
         <v>0</v>
       </c>
-      <c r="S26">
-        <v>14.37</v>
-      </c>
-      <c r="T26">
-        <v>5.5</v>
-      </c>
-      <c r="U26">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>6185</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -2381,22 +2212,13 @@
       <c r="R27">
         <v>0</v>
       </c>
-      <c r="S27">
-        <v>14.37</v>
-      </c>
-      <c r="T27">
-        <v>5.5</v>
-      </c>
-      <c r="U27">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>6185</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -2446,22 +2268,13 @@
       <c r="R28">
         <v>0</v>
       </c>
-      <c r="S28">
-        <v>14.37</v>
-      </c>
-      <c r="T28">
-        <v>5.5</v>
-      </c>
-      <c r="U28">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>6185</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -2511,22 +2324,13 @@
       <c r="R29">
         <v>0</v>
       </c>
-      <c r="S29">
-        <v>14.37</v>
-      </c>
-      <c r="T29">
-        <v>5.5</v>
-      </c>
-      <c r="U29">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>6185</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -2576,22 +2380,13 @@
       <c r="R30">
         <v>0</v>
       </c>
-      <c r="S30">
-        <v>14.37</v>
-      </c>
-      <c r="T30">
-        <v>5.5</v>
-      </c>
-      <c r="U30">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>6185</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -2641,22 +2436,13 @@
       <c r="R31">
         <v>0</v>
       </c>
-      <c r="S31">
-        <v>14.37</v>
-      </c>
-      <c r="T31">
-        <v>5.5</v>
-      </c>
-      <c r="U31">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>6185</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -2706,22 +2492,13 @@
       <c r="R32">
         <v>0</v>
       </c>
-      <c r="S32">
-        <v>14.37</v>
-      </c>
-      <c r="T32">
-        <v>5.5</v>
-      </c>
-      <c r="U32">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>6185</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -2771,22 +2548,13 @@
       <c r="R33">
         <v>0</v>
       </c>
-      <c r="S33">
-        <v>14.37</v>
-      </c>
-      <c r="T33">
-        <v>5.5</v>
-      </c>
-      <c r="U33">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>6185</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C34">
         <v>10</v>
@@ -2836,22 +2604,13 @@
       <c r="R34">
         <v>0</v>
       </c>
-      <c r="S34">
-        <v>14.37</v>
-      </c>
-      <c r="T34">
-        <v>5.5</v>
-      </c>
-      <c r="U34">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>6185</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C35">
         <v>11</v>
@@ -2901,22 +2660,13 @@
       <c r="R35">
         <v>0</v>
       </c>
-      <c r="S35">
-        <v>14.37</v>
-      </c>
-      <c r="T35">
-        <v>5.5</v>
-      </c>
-      <c r="U35">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>6185</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>12</v>
@@ -2966,22 +2716,13 @@
       <c r="R36">
         <v>0</v>
       </c>
-      <c r="S36">
-        <v>14.37</v>
-      </c>
-      <c r="T36">
-        <v>5.5</v>
-      </c>
-      <c r="U36">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>6185</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3031,22 +2772,13 @@
       <c r="R37">
         <v>0</v>
       </c>
-      <c r="S37">
-        <v>14.37</v>
-      </c>
-      <c r="T37">
-        <v>5.5</v>
-      </c>
-      <c r="U37">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>6185</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -3096,22 +2828,13 @@
       <c r="R38">
         <v>0</v>
       </c>
-      <c r="S38">
-        <v>14.37</v>
-      </c>
-      <c r="T38">
-        <v>5.5</v>
-      </c>
-      <c r="U38">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>6185</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -3161,22 +2884,13 @@
       <c r="R39">
         <v>0</v>
       </c>
-      <c r="S39">
-        <v>14.37</v>
-      </c>
-      <c r="T39">
-        <v>5.5</v>
-      </c>
-      <c r="U39">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>6185</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -3226,22 +2940,13 @@
       <c r="R40">
         <v>0</v>
       </c>
-      <c r="S40">
-        <v>14.37</v>
-      </c>
-      <c r="T40">
-        <v>5.5</v>
-      </c>
-      <c r="U40">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>6185</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -3291,22 +2996,13 @@
       <c r="R41">
         <v>0</v>
       </c>
-      <c r="S41">
-        <v>14.37</v>
-      </c>
-      <c r="T41">
-        <v>5.5</v>
-      </c>
-      <c r="U41">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>6185</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -3356,22 +3052,13 @@
       <c r="R42">
         <v>0</v>
       </c>
-      <c r="S42">
-        <v>14.37</v>
-      </c>
-      <c r="T42">
-        <v>5.5</v>
-      </c>
-      <c r="U42">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>6185</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -3421,22 +3108,13 @@
       <c r="R43">
         <v>0</v>
       </c>
-      <c r="S43">
-        <v>14.37</v>
-      </c>
-      <c r="T43">
-        <v>5.5</v>
-      </c>
-      <c r="U43">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>6185</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C44">
         <v>8</v>
@@ -3486,22 +3164,13 @@
       <c r="R44">
         <v>0</v>
       </c>
-      <c r="S44">
-        <v>14.37</v>
-      </c>
-      <c r="T44">
-        <v>5.5</v>
-      </c>
-      <c r="U44">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>6185</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C45">
         <v>9</v>
@@ -3551,22 +3220,13 @@
       <c r="R45">
         <v>0</v>
       </c>
-      <c r="S45">
-        <v>14.37</v>
-      </c>
-      <c r="T45">
-        <v>5.5</v>
-      </c>
-      <c r="U45">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>6185</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C46">
         <v>10</v>
@@ -3616,22 +3276,13 @@
       <c r="R46">
         <v>0</v>
       </c>
-      <c r="S46">
-        <v>14.37</v>
-      </c>
-      <c r="T46">
-        <v>5.5</v>
-      </c>
-      <c r="U46">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>6185</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C47">
         <v>11</v>
@@ -3681,22 +3332,13 @@
       <c r="R47">
         <v>0</v>
       </c>
-      <c r="S47">
-        <v>14.37</v>
-      </c>
-      <c r="T47">
-        <v>5.5</v>
-      </c>
-      <c r="U47">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>6185</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C48">
         <v>12</v>
@@ -3746,22 +3388,13 @@
       <c r="R48">
         <v>0</v>
       </c>
-      <c r="S48">
-        <v>14.37</v>
-      </c>
-      <c r="T48">
-        <v>5.5</v>
-      </c>
-      <c r="U48">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>6185</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3811,22 +3444,13 @@
       <c r="R49">
         <v>0</v>
       </c>
-      <c r="S49">
-        <v>14.37</v>
-      </c>
-      <c r="T49">
-        <v>5.5</v>
-      </c>
-      <c r="U49">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>6185</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -3876,22 +3500,13 @@
       <c r="R50">
         <v>0</v>
       </c>
-      <c r="S50">
-        <v>14.37</v>
-      </c>
-      <c r="T50">
-        <v>5.5</v>
-      </c>
-      <c r="U50">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>6185</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -3941,22 +3556,13 @@
       <c r="R51">
         <v>0</v>
       </c>
-      <c r="S51">
-        <v>14.37</v>
-      </c>
-      <c r="T51">
-        <v>5.5</v>
-      </c>
-      <c r="U51">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>6185</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -4006,22 +3612,13 @@
       <c r="R52">
         <v>0</v>
       </c>
-      <c r="S52">
-        <v>14.37</v>
-      </c>
-      <c r="T52">
-        <v>5.5</v>
-      </c>
-      <c r="U52">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>6185</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -4071,22 +3668,13 @@
       <c r="R53">
         <v>0</v>
       </c>
-      <c r="S53">
-        <v>14.37</v>
-      </c>
-      <c r="T53">
-        <v>5.5</v>
-      </c>
-      <c r="U53">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>6185</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -4136,22 +3724,13 @@
       <c r="R54">
         <v>0</v>
       </c>
-      <c r="S54">
-        <v>14.37</v>
-      </c>
-      <c r="T54">
-        <v>5.5</v>
-      </c>
-      <c r="U54">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>6185</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -4201,22 +3780,13 @@
       <c r="R55">
         <v>0</v>
       </c>
-      <c r="S55">
-        <v>14.37</v>
-      </c>
-      <c r="T55">
-        <v>5.5</v>
-      </c>
-      <c r="U55">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>6185</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C56">
         <v>8</v>
@@ -4266,22 +3836,13 @@
       <c r="R56">
         <v>0</v>
       </c>
-      <c r="S56">
-        <v>14.37</v>
-      </c>
-      <c r="T56">
-        <v>5.5</v>
-      </c>
-      <c r="U56">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>6185</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C57">
         <v>9</v>
@@ -4331,22 +3892,13 @@
       <c r="R57">
         <v>0</v>
       </c>
-      <c r="S57">
-        <v>14.37</v>
-      </c>
-      <c r="T57">
-        <v>5.5</v>
-      </c>
-      <c r="U57">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>6185</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C58">
         <v>10</v>
@@ -4396,22 +3948,13 @@
       <c r="R58">
         <v>0</v>
       </c>
-      <c r="S58">
-        <v>14.37</v>
-      </c>
-      <c r="T58">
-        <v>5.5</v>
-      </c>
-      <c r="U58">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>6185</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C59">
         <v>11</v>
@@ -4461,22 +4004,13 @@
       <c r="R59">
         <v>0</v>
       </c>
-      <c r="S59">
-        <v>14.37</v>
-      </c>
-      <c r="T59">
-        <v>5.5</v>
-      </c>
-      <c r="U59">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>6185</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C60">
         <v>12</v>
@@ -4526,22 +4060,13 @@
       <c r="R60">
         <v>0</v>
       </c>
-      <c r="S60">
-        <v>14.37</v>
-      </c>
-      <c r="T60">
-        <v>5.5</v>
-      </c>
-      <c r="U60">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>6185</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4591,22 +4116,13 @@
       <c r="R61">
         <v>0</v>
       </c>
-      <c r="S61">
-        <v>14.37</v>
-      </c>
-      <c r="T61">
-        <v>5.5</v>
-      </c>
-      <c r="U61">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>6185</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -4656,22 +4172,13 @@
       <c r="R62">
         <v>0</v>
       </c>
-      <c r="S62">
-        <v>14.37</v>
-      </c>
-      <c r="T62">
-        <v>5.5</v>
-      </c>
-      <c r="U62">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>6185</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -4721,22 +4228,13 @@
       <c r="R63">
         <v>0</v>
       </c>
-      <c r="S63">
-        <v>14.37</v>
-      </c>
-      <c r="T63">
-        <v>5.5</v>
-      </c>
-      <c r="U63">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>6185</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -4786,22 +4284,13 @@
       <c r="R64">
         <v>0</v>
       </c>
-      <c r="S64">
-        <v>14.37</v>
-      </c>
-      <c r="T64">
-        <v>5.5</v>
-      </c>
-      <c r="U64">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65">
         <v>6185</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -4851,22 +4340,13 @@
       <c r="R65">
         <v>0</v>
       </c>
-      <c r="S65">
-        <v>14.37</v>
-      </c>
-      <c r="T65">
-        <v>5.5</v>
-      </c>
-      <c r="U65">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66">
         <v>6185</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -4916,22 +4396,13 @@
       <c r="R66">
         <v>0</v>
       </c>
-      <c r="S66">
-        <v>14.37</v>
-      </c>
-      <c r="T66">
-        <v>5.5</v>
-      </c>
-      <c r="U66">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67">
         <v>6185</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C67">
         <v>7</v>
@@ -4981,22 +4452,13 @@
       <c r="R67">
         <v>0</v>
       </c>
-      <c r="S67">
-        <v>14.37</v>
-      </c>
-      <c r="T67">
-        <v>5.5</v>
-      </c>
-      <c r="U67">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68">
         <v>6185</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C68">
         <v>8</v>
@@ -5046,22 +4508,13 @@
       <c r="R68">
         <v>0</v>
       </c>
-      <c r="S68">
-        <v>14.37</v>
-      </c>
-      <c r="T68">
-        <v>5.5</v>
-      </c>
-      <c r="U68">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69">
         <v>6185</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C69">
         <v>9</v>
@@ -5111,22 +4564,13 @@
       <c r="R69">
         <v>0</v>
       </c>
-      <c r="S69">
-        <v>14.37</v>
-      </c>
-      <c r="T69">
-        <v>5.5</v>
-      </c>
-      <c r="U69">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70">
         <v>6185</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C70">
         <v>10</v>
@@ -5176,22 +4620,13 @@
       <c r="R70">
         <v>0</v>
       </c>
-      <c r="S70">
-        <v>14.37</v>
-      </c>
-      <c r="T70">
-        <v>5.5</v>
-      </c>
-      <c r="U70">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71">
         <v>6185</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C71">
         <v>11</v>
@@ -5241,22 +4676,13 @@
       <c r="R71">
         <v>0</v>
       </c>
-      <c r="S71">
-        <v>14.37</v>
-      </c>
-      <c r="T71">
-        <v>5.5</v>
-      </c>
-      <c r="U71">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72">
         <v>6185</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C72">
         <v>12</v>
@@ -5306,22 +4732,13 @@
       <c r="R72">
         <v>0</v>
       </c>
-      <c r="S72">
-        <v>14.37</v>
-      </c>
-      <c r="T72">
-        <v>5.5</v>
-      </c>
-      <c r="U72">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73">
         <v>6185</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -5371,22 +4788,13 @@
       <c r="R73">
         <v>0</v>
       </c>
-      <c r="S73">
-        <v>14.37</v>
-      </c>
-      <c r="T73">
-        <v>5.5</v>
-      </c>
-      <c r="U73">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74">
         <v>6185</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -5436,22 +4844,13 @@
       <c r="R74">
         <v>0</v>
       </c>
-      <c r="S74">
-        <v>14.37</v>
-      </c>
-      <c r="T74">
-        <v>5.5</v>
-      </c>
-      <c r="U74">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75">
         <v>6185</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -5501,22 +4900,13 @@
       <c r="R75">
         <v>0</v>
       </c>
-      <c r="S75">
-        <v>14.37</v>
-      </c>
-      <c r="T75">
-        <v>5.5</v>
-      </c>
-      <c r="U75">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76">
         <v>6185</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -5566,22 +4956,13 @@
       <c r="R76">
         <v>0</v>
       </c>
-      <c r="S76">
-        <v>14.37</v>
-      </c>
-      <c r="T76">
-        <v>5.5</v>
-      </c>
-      <c r="U76">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77">
         <v>6185</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -5631,22 +5012,13 @@
       <c r="R77">
         <v>0</v>
       </c>
-      <c r="S77">
-        <v>14.37</v>
-      </c>
-      <c r="T77">
-        <v>5.5</v>
-      </c>
-      <c r="U77">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78">
         <v>6185</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -5696,22 +5068,13 @@
       <c r="R78">
         <v>0</v>
       </c>
-      <c r="S78">
-        <v>14.37</v>
-      </c>
-      <c r="T78">
-        <v>5.5</v>
-      </c>
-      <c r="U78">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79">
         <v>6185</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C79">
         <v>7</v>
@@ -5761,22 +5124,13 @@
       <c r="R79">
         <v>0</v>
       </c>
-      <c r="S79">
-        <v>14.37</v>
-      </c>
-      <c r="T79">
-        <v>5.5</v>
-      </c>
-      <c r="U79">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80">
         <v>6185</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C80">
         <v>8</v>
@@ -5826,22 +5180,13 @@
       <c r="R80">
         <v>0</v>
       </c>
-      <c r="S80">
-        <v>14.37</v>
-      </c>
-      <c r="T80">
-        <v>5.5</v>
-      </c>
-      <c r="U80">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81">
         <v>6185</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C81">
         <v>9</v>
@@ -5891,22 +5236,13 @@
       <c r="R81">
         <v>0</v>
       </c>
-      <c r="S81">
-        <v>14.37</v>
-      </c>
-      <c r="T81">
-        <v>5.5</v>
-      </c>
-      <c r="U81">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82">
         <v>6185</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C82">
         <v>10</v>
@@ -5956,22 +5292,13 @@
       <c r="R82">
         <v>0</v>
       </c>
-      <c r="S82">
-        <v>14.37</v>
-      </c>
-      <c r="T82">
-        <v>5.5</v>
-      </c>
-      <c r="U82">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83">
         <v>6185</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C83">
         <v>11</v>
@@ -6021,22 +5348,13 @@
       <c r="R83">
         <v>0</v>
       </c>
-      <c r="S83">
-        <v>14.37</v>
-      </c>
-      <c r="T83">
-        <v>5.5</v>
-      </c>
-      <c r="U83">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84">
         <v>6185</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C84">
         <v>12</v>
@@ -6086,22 +5404,13 @@
       <c r="R84">
         <v>0</v>
       </c>
-      <c r="S84">
-        <v>14.37</v>
-      </c>
-      <c r="T84">
-        <v>5.5</v>
-      </c>
-      <c r="U84">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85">
         <v>6185</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -6151,22 +5460,13 @@
       <c r="R85">
         <v>0</v>
       </c>
-      <c r="S85">
-        <v>14.37</v>
-      </c>
-      <c r="T85">
-        <v>5.5</v>
-      </c>
-      <c r="U85">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86">
         <v>6185</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -6216,22 +5516,13 @@
       <c r="R86">
         <v>0</v>
       </c>
-      <c r="S86">
-        <v>14.37</v>
-      </c>
-      <c r="T86">
-        <v>5.5</v>
-      </c>
-      <c r="U86">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87">
         <v>6185</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -6281,22 +5572,13 @@
       <c r="R87">
         <v>0</v>
       </c>
-      <c r="S87">
-        <v>14.37</v>
-      </c>
-      <c r="T87">
-        <v>5.5</v>
-      </c>
-      <c r="U87">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88">
         <v>6185</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -6346,22 +5628,13 @@
       <c r="R88">
         <v>0</v>
       </c>
-      <c r="S88">
-        <v>14.37</v>
-      </c>
-      <c r="T88">
-        <v>5.5</v>
-      </c>
-      <c r="U88">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89">
         <v>6185</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -6411,22 +5684,13 @@
       <c r="R89">
         <v>0</v>
       </c>
-      <c r="S89">
-        <v>14.37</v>
-      </c>
-      <c r="T89">
-        <v>5.5</v>
-      </c>
-      <c r="U89">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90">
         <v>6185</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C90">
         <v>6</v>
@@ -6476,22 +5740,13 @@
       <c r="R90">
         <v>0</v>
       </c>
-      <c r="S90">
-        <v>14.37</v>
-      </c>
-      <c r="T90">
-        <v>5.5</v>
-      </c>
-      <c r="U90">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91">
         <v>6185</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C91">
         <v>7</v>
@@ -6541,22 +5796,13 @@
       <c r="R91">
         <v>0</v>
       </c>
-      <c r="S91">
-        <v>14.37</v>
-      </c>
-      <c r="T91">
-        <v>5.5</v>
-      </c>
-      <c r="U91">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92">
         <v>6185</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C92">
         <v>8</v>
@@ -6606,22 +5852,13 @@
       <c r="R92">
         <v>0</v>
       </c>
-      <c r="S92">
-        <v>14.37</v>
-      </c>
-      <c r="T92">
-        <v>5.5</v>
-      </c>
-      <c r="U92">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93">
         <v>6185</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C93">
         <v>9</v>
@@ -6671,22 +5908,13 @@
       <c r="R93">
         <v>0</v>
       </c>
-      <c r="S93">
-        <v>14.37</v>
-      </c>
-      <c r="T93">
-        <v>5.5</v>
-      </c>
-      <c r="U93">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94">
         <v>6185</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C94">
         <v>10</v>
@@ -6736,22 +5964,13 @@
       <c r="R94">
         <v>0</v>
       </c>
-      <c r="S94">
-        <v>14.37</v>
-      </c>
-      <c r="T94">
-        <v>5.5</v>
-      </c>
-      <c r="U94">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95">
         <v>6185</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C95">
         <v>11</v>
@@ -6801,22 +6020,13 @@
       <c r="R95">
         <v>0</v>
       </c>
-      <c r="S95">
-        <v>14.37</v>
-      </c>
-      <c r="T95">
-        <v>5.5</v>
-      </c>
-      <c r="U95">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96">
         <v>6185</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C96">
         <v>12</v>
@@ -6866,22 +6076,13 @@
       <c r="R96">
         <v>0</v>
       </c>
-      <c r="S96">
-        <v>14.37</v>
-      </c>
-      <c r="T96">
-        <v>5.5</v>
-      </c>
-      <c r="U96">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97">
         <v>6185</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -6931,22 +6132,13 @@
       <c r="R97">
         <v>0</v>
       </c>
-      <c r="S97">
-        <v>14.37</v>
-      </c>
-      <c r="T97">
-        <v>5.5</v>
-      </c>
-      <c r="U97">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98">
         <v>6185</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -6996,22 +6188,13 @@
       <c r="R98">
         <v>0</v>
       </c>
-      <c r="S98">
-        <v>14.37</v>
-      </c>
-      <c r="T98">
-        <v>5.5</v>
-      </c>
-      <c r="U98">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99">
         <v>6185</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -7061,22 +6244,13 @@
       <c r="R99">
         <v>0</v>
       </c>
-      <c r="S99">
-        <v>14.37</v>
-      </c>
-      <c r="T99">
-        <v>5.5</v>
-      </c>
-      <c r="U99">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100">
         <v>6185</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -7126,22 +6300,13 @@
       <c r="R100">
         <v>0</v>
       </c>
-      <c r="S100">
-        <v>14.37</v>
-      </c>
-      <c r="T100">
-        <v>5.5</v>
-      </c>
-      <c r="U100">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101">
         <v>6185</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -7191,22 +6356,13 @@
       <c r="R101">
         <v>0</v>
       </c>
-      <c r="S101">
-        <v>14.37</v>
-      </c>
-      <c r="T101">
-        <v>5.5</v>
-      </c>
-      <c r="U101">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102">
         <v>6185</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C102">
         <v>6</v>
@@ -7256,22 +6412,13 @@
       <c r="R102">
         <v>0</v>
       </c>
-      <c r="S102">
-        <v>14.37</v>
-      </c>
-      <c r="T102">
-        <v>5.5</v>
-      </c>
-      <c r="U102">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103">
         <v>6185</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C103">
         <v>7</v>
@@ -7321,22 +6468,13 @@
       <c r="R103">
         <v>0</v>
       </c>
-      <c r="S103">
-        <v>14.37</v>
-      </c>
-      <c r="T103">
-        <v>5.5</v>
-      </c>
-      <c r="U103">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104">
         <v>6185</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C104">
         <v>8</v>
@@ -7386,22 +6524,13 @@
       <c r="R104">
         <v>0</v>
       </c>
-      <c r="S104">
-        <v>14.37</v>
-      </c>
-      <c r="T104">
-        <v>5.5</v>
-      </c>
-      <c r="U104">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105">
         <v>6185</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C105">
         <v>9</v>
@@ -7451,22 +6580,13 @@
       <c r="R105">
         <v>0</v>
       </c>
-      <c r="S105">
-        <v>14.37</v>
-      </c>
-      <c r="T105">
-        <v>5.5</v>
-      </c>
-      <c r="U105">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106">
         <v>6185</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C106">
         <v>10</v>
@@ -7516,22 +6636,13 @@
       <c r="R106">
         <v>0</v>
       </c>
-      <c r="S106">
-        <v>14.37</v>
-      </c>
-      <c r="T106">
-        <v>5.5</v>
-      </c>
-      <c r="U106">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107">
         <v>6185</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C107">
         <v>11</v>
@@ -7581,22 +6692,13 @@
       <c r="R107">
         <v>0</v>
       </c>
-      <c r="S107">
-        <v>14.37</v>
-      </c>
-      <c r="T107">
-        <v>5.5</v>
-      </c>
-      <c r="U107">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108">
         <v>6185</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C108">
         <v>12</v>
@@ -7646,22 +6748,13 @@
       <c r="R108">
         <v>0</v>
       </c>
-      <c r="S108">
-        <v>14.37</v>
-      </c>
-      <c r="T108">
-        <v>5.5</v>
-      </c>
-      <c r="U108">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109">
         <v>6185</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -7711,22 +6804,13 @@
       <c r="R109">
         <v>0</v>
       </c>
-      <c r="S109">
-        <v>14.37</v>
-      </c>
-      <c r="T109">
-        <v>5.5</v>
-      </c>
-      <c r="U109">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110">
         <v>6185</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -7776,22 +6860,13 @@
       <c r="R110">
         <v>0</v>
       </c>
-      <c r="S110">
-        <v>14.37</v>
-      </c>
-      <c r="T110">
-        <v>5.5</v>
-      </c>
-      <c r="U110">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111">
         <v>6185</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -7841,22 +6916,13 @@
       <c r="R111">
         <v>0</v>
       </c>
-      <c r="S111">
-        <v>14.37</v>
-      </c>
-      <c r="T111">
-        <v>5.5</v>
-      </c>
-      <c r="U111">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112">
         <v>6185</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C112">
         <v>4</v>
@@ -7906,22 +6972,13 @@
       <c r="R112">
         <v>0</v>
       </c>
-      <c r="S112">
-        <v>14.37</v>
-      </c>
-      <c r="T112">
-        <v>5.5</v>
-      </c>
-      <c r="U112">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113">
         <v>6185</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C113">
         <v>5</v>
@@ -7971,22 +7028,13 @@
       <c r="R113">
         <v>0</v>
       </c>
-      <c r="S113">
-        <v>14.37</v>
-      </c>
-      <c r="T113">
-        <v>5.5</v>
-      </c>
-      <c r="U113">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114">
         <v>6185</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C114">
         <v>6</v>
@@ -8036,22 +7084,13 @@
       <c r="R114">
         <v>0</v>
       </c>
-      <c r="S114">
-        <v>14.37</v>
-      </c>
-      <c r="T114">
-        <v>5.5</v>
-      </c>
-      <c r="U114">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115">
         <v>6185</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C115">
         <v>7</v>
@@ -8101,22 +7140,13 @@
       <c r="R115">
         <v>0</v>
       </c>
-      <c r="S115">
-        <v>14.37</v>
-      </c>
-      <c r="T115">
-        <v>5.5</v>
-      </c>
-      <c r="U115">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116">
         <v>6185</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C116">
         <v>8</v>
@@ -8166,22 +7196,13 @@
       <c r="R116">
         <v>0</v>
       </c>
-      <c r="S116">
-        <v>14.37</v>
-      </c>
-      <c r="T116">
-        <v>5.5</v>
-      </c>
-      <c r="U116">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117">
         <v>6185</v>
       </c>
       <c r="B117" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C117">
         <v>9</v>
@@ -8231,22 +7252,13 @@
       <c r="R117">
         <v>0</v>
       </c>
-      <c r="S117">
-        <v>14.37</v>
-      </c>
-      <c r="T117">
-        <v>5.5</v>
-      </c>
-      <c r="U117">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118">
         <v>6185</v>
       </c>
       <c r="B118" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C118">
         <v>10</v>
@@ -8296,22 +7308,13 @@
       <c r="R118">
         <v>0</v>
       </c>
-      <c r="S118">
-        <v>14.37</v>
-      </c>
-      <c r="T118">
-        <v>5.5</v>
-      </c>
-      <c r="U118">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119">
         <v>6185</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C119">
         <v>11</v>
@@ -8361,22 +7364,13 @@
       <c r="R119">
         <v>0</v>
       </c>
-      <c r="S119">
-        <v>14.37</v>
-      </c>
-      <c r="T119">
-        <v>5.5</v>
-      </c>
-      <c r="U119">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120">
         <v>6185</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C120">
         <v>12</v>
@@ -8426,22 +7420,13 @@
       <c r="R120">
         <v>0</v>
       </c>
-      <c r="S120">
-        <v>14.37</v>
-      </c>
-      <c r="T120">
-        <v>5.5</v>
-      </c>
-      <c r="U120">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121">
         <v>6185</v>
       </c>
       <c r="B121" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -8491,22 +7476,13 @@
       <c r="R121">
         <v>0</v>
       </c>
-      <c r="S121">
-        <v>14.37</v>
-      </c>
-      <c r="T121">
-        <v>5.5</v>
-      </c>
-      <c r="U121">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122">
         <v>6185</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -8556,22 +7532,13 @@
       <c r="R122">
         <v>0</v>
       </c>
-      <c r="S122">
-        <v>14.37</v>
-      </c>
-      <c r="T122">
-        <v>5.5</v>
-      </c>
-      <c r="U122">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123">
         <v>6185</v>
       </c>
       <c r="B123" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C123">
         <v>3</v>
@@ -8621,22 +7588,13 @@
       <c r="R123">
         <v>0</v>
       </c>
-      <c r="S123">
-        <v>14.37</v>
-      </c>
-      <c r="T123">
-        <v>5.5</v>
-      </c>
-      <c r="U123">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124">
         <v>6185</v>
       </c>
       <c r="B124" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C124">
         <v>4</v>
@@ -8686,22 +7644,13 @@
       <c r="R124">
         <v>0</v>
       </c>
-      <c r="S124">
-        <v>14.37</v>
-      </c>
-      <c r="T124">
-        <v>5.5</v>
-      </c>
-      <c r="U124">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125">
         <v>6185</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C125">
         <v>5</v>
@@ -8751,22 +7700,13 @@
       <c r="R125">
         <v>0</v>
       </c>
-      <c r="S125">
-        <v>14.37</v>
-      </c>
-      <c r="T125">
-        <v>5.5</v>
-      </c>
-      <c r="U125">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126">
         <v>6185</v>
       </c>
       <c r="B126" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C126">
         <v>6</v>
@@ -8816,22 +7756,13 @@
       <c r="R126">
         <v>0</v>
       </c>
-      <c r="S126">
-        <v>14.37</v>
-      </c>
-      <c r="T126">
-        <v>5.5</v>
-      </c>
-      <c r="U126">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127">
         <v>6185</v>
       </c>
       <c r="B127" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C127">
         <v>7</v>
@@ -8881,22 +7812,13 @@
       <c r="R127">
         <v>0</v>
       </c>
-      <c r="S127">
-        <v>14.37</v>
-      </c>
-      <c r="T127">
-        <v>5.5</v>
-      </c>
-      <c r="U127">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128">
         <v>6185</v>
       </c>
       <c r="B128" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C128">
         <v>8</v>
@@ -8946,22 +7868,13 @@
       <c r="R128">
         <v>0</v>
       </c>
-      <c r="S128">
-        <v>14.37</v>
-      </c>
-      <c r="T128">
-        <v>5.5</v>
-      </c>
-      <c r="U128">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129">
         <v>6185</v>
       </c>
       <c r="B129" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C129">
         <v>9</v>
@@ -9011,22 +7924,13 @@
       <c r="R129">
         <v>0</v>
       </c>
-      <c r="S129">
-        <v>14.37</v>
-      </c>
-      <c r="T129">
-        <v>5.5</v>
-      </c>
-      <c r="U129">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130">
         <v>6185</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C130">
         <v>10</v>
@@ -9076,22 +7980,13 @@
       <c r="R130">
         <v>0</v>
       </c>
-      <c r="S130">
-        <v>14.37</v>
-      </c>
-      <c r="T130">
-        <v>5.5</v>
-      </c>
-      <c r="U130">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131">
         <v>6185</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C131">
         <v>11</v>
@@ -9141,22 +8036,13 @@
       <c r="R131">
         <v>0</v>
       </c>
-      <c r="S131">
-        <v>14.37</v>
-      </c>
-      <c r="T131">
-        <v>5.5</v>
-      </c>
-      <c r="U131">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132">
         <v>6185</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C132">
         <v>12</v>
@@ -9205,15 +8091,6 @@
       </c>
       <c r="R132">
         <v>0</v>
-      </c>
-      <c r="S132">
-        <v>14.37</v>
-      </c>
-      <c r="T132">
-        <v>5.5</v>
-      </c>
-      <c r="U132">
-        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -9228,12 +8105,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -9245,12 +8122,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
